--- a/biology/Zoologie/Anolis_roquet/Anolis_roquet.xlsx
+++ b/biology/Zoologie/Anolis_roquet/Anolis_roquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis roquet est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis roquet est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Famille et genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anolis sont des sauriens proches parents des Iguanidés, famille dans laquelle ils furent inclus pendant longtemps avant que celle-ci n’éclate à la fin des années 1980. Le genre Anolis est très vaste, avec près de 380 espèces. Certaines espèces affiliées auparavant à ce genre ont été reclassées dans d’autres genres comme Chamaeleolis ou Norops.
 </t>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Anolis fut récemment révisé et scindé et Anolis roquet  placé dans le genre Dactyloa.
-Nommé « Zandoli » aux Antilles françaises, Anolis roquet est originaire de la Martinique[2]. mais se rencontre aujourd'hui sur de nombreuses autres îles antillaises. Avec le gecko des maisons (Hemidactylus mabouia), c’est un lézard commun vivant principalement dans les jardins et habitations.
+Nommé « Zandoli » aux Antilles françaises, Anolis roquet est originaire de la Martinique. mais se rencontre aujourd'hui sur de nombreuses autres îles antillaises. Avec le gecko des maisons (Hemidactylus mabouia), c’est un lézard commun vivant principalement dans les jardins et habitations.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 août 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 août 2012) :
 Anolis roquet caracoli Lazell, 1972
 Anolis roquet majolgris Lazell, 1972
 Anolis roquet roquet (Bonnaterre, 1789)
@@ -610,9 +628,11 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la série télévisée Meurtres au paradis, les inspecteurs qui se succèdent sur l'île fictive de Sainte-Marie ont pour logement de fonction une cabane sur la plage, habitée également par un Anolis roquet, que l'inspecteur Richard Poole nomme Harry dans l'épisode 5 de la saison 1. Pour faciliter la mise en scène, ce personnage récurrent à part entière est virtuel et la production a recours à l'infographie pour l'animer[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la série télévisée Meurtres au paradis, les inspecteurs qui se succèdent sur l'île fictive de Sainte-Marie ont pour logement de fonction une cabane sur la plage, habitée également par un Anolis roquet, que l'inspecteur Richard Poole nomme Harry dans l'épisode 5 de la saison 1. Pour faciliter la mise en scène, ce personnage récurrent à part entière est virtuel et la production a recours à l'infographie pour l'animer.
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bonnaterre, 1789 : Tableau encyclopédique et méthodique des trois règnes de la nature, Erpétologie. Panckoucke, Paris, p. 1-71.
 Lazell, 1972 : The anoles (Sauria: Iguanidae) of the lesser Antilles. Bulletin of The Museum of Comparative Zoology, vol. 143, no 1, p. 1-115 (texte intégral).</t>
